--- a/linreg-01.xlsx
+++ b/linreg-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uwe\Desktop\Introduction_Linear_Regression.git\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80A1573-1248-44C9-803E-DA305B6DD5CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113F9134-93D0-487D-B1C7-3FA5D37749FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{0CFCE339-752A-4960-BB99-7B80CF65C12F}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>x</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>y_hat</t>
+  </si>
+  <si>
+    <t>y-y_hat</t>
+  </si>
+  <si>
+    <t>(y-y_hat)^2</t>
   </si>
 </sst>
 </file>
@@ -976,13 +985,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>431006</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>431006</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -1310,91 +1319,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF708A7C-A62A-4CC3-A3F4-F8D7894E4947}">
-  <dimension ref="B2:F11"/>
+  <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <f>$I$7*B3+$I$5</f>
+        <v>1.3999999999999997</v>
+      </c>
+      <c r="E3">
+        <f>C3-D3</f>
+        <v>-0.39999999999999969</v>
+      </c>
+      <c r="F3">
+        <f>E3^2</f>
+        <v>0.15999999999999975</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4">
+        <f>$I$7*B4+$I$5</f>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E7" si="0">C4-D4</f>
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F7" si="1">E4^2</f>
+        <v>0.64000000000000046</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5">
+        <f t="shared" ref="D5:D7" si="2">$I$7*B5+$I$5</f>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <f>INTERCEPT(y,x)</f>
         <v>0.59999999999999964</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1.4400000000000004</v>
+      </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-0.59999999999999964</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.3599999999999996</v>
+      </c>
+      <c r="H7" t="s">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <f>SLOPE(y,x)</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="E9" t="s">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F8">
+        <f>SUM(F3:F7)</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F9">
+        <f>F8/3</f>
+        <v>1.2</v>
+      </c>
+      <c r="H9" t="s">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <f>RSQ(y,x)</f>
         <v>0.63999999999999968</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="E11" t="s">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F10">
+        <f>SQRT(F9)</f>
+        <v>1.0954451150103321</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H11" t="s">
         <v>5</v>
       </c>
-      <c r="F11">
-        <f>SQRT(F9)</f>
+      <c r="I11">
+        <f>SQRT(I9)</f>
         <v>0.79999999999999982</v>
       </c>
     </row>

--- a/linreg-01.xlsx
+++ b/linreg-01.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uwe\Desktop\Introduction_Linear_Regression.git\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113F9134-93D0-487D-B1C7-3FA5D37749FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E369F794-3D74-4FC4-8E50-4137377FF2AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{0CFCE339-752A-4960-BB99-7B80CF65C12F}"/>
+    <workbookView xWindow="2175" yWindow="2175" windowWidth="16200" windowHeight="8385" activeTab="1" xr2:uid="{0CFCE339-752A-4960-BB99-7B80CF65C12F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="x">Tabelle1!$B$2:$B$7</definedName>
+    <definedName name="xbar">Tabelle2!$B$11</definedName>
     <definedName name="y">Tabelle1!$C$2:$C$7</definedName>
+    <definedName name="ybar">Tabelle2!$C$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>x</t>
   </si>
@@ -56,6 +59,18 @@
   </si>
   <si>
     <t>(y-y_hat)^2</t>
+  </si>
+  <si>
+    <t>x-xbar</t>
+  </si>
+  <si>
+    <t>y-ybar</t>
+  </si>
+  <si>
+    <t>(x-xbar)(y-ybar)</t>
+  </si>
+  <si>
+    <t>(x-xbar)^2</t>
   </si>
 </sst>
 </file>
@@ -1321,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF708A7C-A62A-4CC3-A3F4-F8D7894E4947}">
   <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1496,4 +1511,229 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EC5279-CF1E-4552-8BC9-D717522B7AA2}">
+  <dimension ref="B3:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>B4-xbar</f>
+        <v>-2.5</v>
+      </c>
+      <c r="E4">
+        <f>C4-ybar</f>
+        <v>-2.3333333333333335</v>
+      </c>
+      <c r="F4">
+        <f>D4*E4</f>
+        <v>5.8333333333333339</v>
+      </c>
+      <c r="G4">
+        <f>D4^2</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f>B5-xbar</f>
+        <v>-1.5</v>
+      </c>
+      <c r="E5">
+        <f>C5-ybar</f>
+        <v>-0.33333333333333348</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F9" si="0">D5*E5</f>
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G9" si="1">D5^2</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>B6-xbar</f>
+        <v>-0.5</v>
+      </c>
+      <c r="E6">
+        <f>C6-ybar</f>
+        <v>-1.3333333333333335</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f>B7-xbar</f>
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <f>C7-ybar</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <f>B8-xbar</f>
+        <v>1.5</v>
+      </c>
+      <c r="E8">
+        <f>C8-ybar</f>
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <f>B9-xbar</f>
+        <v>2.5</v>
+      </c>
+      <c r="E9">
+        <f>C9-ybar</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <f>SUM(B4:B9)</f>
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <f>SUM(C4:C9)</f>
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <f>SUM(F4:F9)</f>
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <f>SUM(G4:G9)</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <f>AVERAGE(B4:B9)</f>
+        <v>3.5</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(C4:C9)</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F13">
+        <f>F10/G10</f>
+        <v>0.74285714285714288</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C15">
+        <f>7*F13+F16</f>
+        <v>5.9333333333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F16">
+        <f>ybar-F13*xbar</f>
+        <v>0.73333333333333339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/linreg-01.xlsx
+++ b/linreg-01.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uwe\Desktop\Introduction_Linear_Regression.git\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E369F794-3D74-4FC4-8E50-4137377FF2AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB52389F-9E16-43D8-8D8C-95873C3F67E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2175" windowWidth="16200" windowHeight="8385" activeTab="1" xr2:uid="{0CFCE339-752A-4960-BB99-7B80CF65C12F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" activeTab="1" xr2:uid="{0CFCE339-752A-4960-BB99-7B80CF65C12F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="x">Tabelle1!$B$2:$B$7</definedName>
+    <definedName name="x">Tabelle1!$B$2:$B$8</definedName>
     <definedName name="xbar">Tabelle2!$B$11</definedName>
-    <definedName name="y">Tabelle1!$C$2:$C$7</definedName>
+    <definedName name="y">Tabelle1!$C$2:$C$8</definedName>
     <definedName name="ybar">Tabelle2!$C$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>x</t>
   </si>
@@ -72,6 +72,18 @@
   <si>
     <t>(x-xbar)^2</t>
   </si>
+  <si>
+    <t>Steigung</t>
+  </si>
+  <si>
+    <t>Intersect</t>
+  </si>
+  <si>
+    <t>Preis</t>
+  </si>
+  <si>
+    <t>Menge</t>
+  </si>
 </sst>
 </file>
 
@@ -106,8 +118,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -200,10 +215,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$B$7</c:f>
+              <c:f>Tabelle1!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -219,29 +234,35 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$7</c:f>
+              <c:f>Tabelle1!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,7 +1029,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>431006</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1334,20 +1355,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF708A7C-A62A-4CC3-A3F4-F8D7894E4947}">
-  <dimension ref="B2:I11"/>
+  <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C7"/>
+      <selection activeCell="C8" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1360,151 +1381,179 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" s="1">
+        <v>50</v>
       </c>
       <c r="D3">
-        <f>$I$7*B3+$I$5</f>
-        <v>1.3999999999999997</v>
+        <f t="shared" ref="D3:D8" si="0">$I$5*B3+$I$7</f>
+        <v>50</v>
       </c>
       <c r="E3">
         <f>C3-D3</f>
-        <v>-0.39999999999999969</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f>E3^2</f>
-        <v>0.15999999999999975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E8" si="1">C4-D4</f>
+        <v>-3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F8" si="2">E4^2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="D4">
-        <f>$I$7*B4+$I$5</f>
-        <v>2.1999999999999997</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E7" si="0">C4-D4</f>
-        <v>0.80000000000000027</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F7" si="1">E4^2</f>
-        <v>0.64000000000000046</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5">
+      <c r="C5" s="1">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D7" si="2">$I$7*B5+$I$5</f>
+      <c r="I5">
+        <f>SLOPE(y,x)</f>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <f>INTERCEPT(y,x)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <f>INTERCEPT(y,x)</f>
-        <v>0.59999999999999964</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="2"/>
-        <v>3.8</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>1.4400000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>-0.59999999999999964</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>0.3599999999999996</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <f>SLOPE(y,x)</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="F8">
-        <f>SUM(F3:F7)</f>
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <f>AVERAGE(B3:B8)</f>
+        <v>3.5</v>
+      </c>
+      <c r="C9">
+        <f>AVERAGE(C3:C8)</f>
+        <v>32.5</v>
+      </c>
       <c r="F9">
-        <f>F8/3</f>
-        <v>1.2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <f>RSQ(y,x)</f>
-        <v>0.63999999999999968</v>
+        <f>SUM(F3:F8)</f>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="F10">
-        <f>SQRT(F9)</f>
-        <v>1.0954451150103321</v>
+        <f>F9/3</f>
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <f>RSQ(y,x)</f>
+        <v>0.82650602409638541</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="H11" t="s">
+      <c r="F11">
+        <f>SQRT(F10)</f>
+        <v>7.745966692414834</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H12" t="s">
         <v>5</v>
       </c>
-      <c r="I11">
-        <f>SQRT(I9)</f>
-        <v>0.79999999999999982</v>
+      <c r="I12">
+        <f>SQRT(I10)</f>
+        <v>0.90912376720465593</v>
       </c>
     </row>
   </sheetData>
@@ -1517,11 +1566,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EC5279-CF1E-4552-8BC9-D717522B7AA2}">
   <dimension ref="B3:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
@@ -1544,23 +1597,23 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" s="1">
+        <v>50</v>
       </c>
       <c r="D4">
-        <f>B4-xbar</f>
+        <f t="shared" ref="D4:D9" si="0">B4-xbar</f>
         <v>-2.5</v>
       </c>
       <c r="E4">
-        <f>C4-ybar</f>
-        <v>-2.3333333333333335</v>
+        <f t="shared" ref="E4:E9" si="1">C4-ybar</f>
+        <v>17.5</v>
       </c>
       <c r="F4">
         <f>D4*E4</f>
-        <v>5.8333333333333339</v>
+        <v>-43.75</v>
       </c>
       <c r="G4">
         <f>D4^2</f>
@@ -1568,122 +1621,122 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B5">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F9" si="2">D5*E5</f>
+        <v>-11.25</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G9" si="3">D5^2</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="D5">
-        <f>B5-xbar</f>
-        <v>-1.5</v>
-      </c>
-      <c r="E5">
-        <f>C5-ybar</f>
-        <v>-0.33333333333333348</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F9" si="0">D5*E5</f>
-        <v>0.50000000000000022</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G9" si="1">D5^2</f>
+      <c r="C6" s="1">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>-6.25</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>-12.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>-6.25</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>-7.5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>-11.25</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <f>B6-xbar</f>
-        <v>-0.5</v>
-      </c>
-      <c r="E6">
-        <f>C6-ybar</f>
-        <v>-1.3333333333333335</v>
-      </c>
-      <c r="F6">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="G6">
+        <v>2.5</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <f>B7-xbar</f>
-        <v>0.5</v>
-      </c>
-      <c r="E7">
-        <f>C7-ybar</f>
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <f>B8-xbar</f>
-        <v>1.5</v>
-      </c>
-      <c r="E8">
-        <f>C8-ybar</f>
-        <v>0.66666666666666652</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <f>B9-xbar</f>
-        <v>2.5</v>
-      </c>
-      <c r="E9">
-        <f>C9-ybar</f>
-        <v>1.6666666666666665</v>
+        <v>-17.5</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666661</v>
+        <f t="shared" si="2"/>
+        <v>-43.75</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
     </row>
@@ -1694,11 +1747,11 @@
       </c>
       <c r="C10">
         <f>SUM(C4:C9)</f>
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="F10">
         <f>SUM(F4:F9)</f>
-        <v>13</v>
+        <v>-122.5</v>
       </c>
       <c r="G10">
         <f>SUM(G4:G9)</f>
@@ -1712,25 +1765,31 @@
       </c>
       <c r="C11">
         <f>AVERAGE(C4:C9)</f>
-        <v>3.3333333333333335</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
       <c r="F13">
         <f>F10/G10</f>
-        <v>0.74285714285714288</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C15">
         <f>7*F13+F16</f>
-        <v>5.9333333333333336</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
       <c r="F16">
         <f>ybar-F13*xbar</f>
-        <v>0.73333333333333339</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/linreg-01.xlsx
+++ b/linreg-01.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uwe\Desktop\Introduction_Linear_Regression.git\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\Introduction_Linear_Regression.git\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB52389F-9E16-43D8-8D8C-95873C3F67E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" activeTab="1" xr2:uid="{0CFCE339-752A-4960-BB99-7B80CF65C12F}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21800" windowHeight="11750" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Manuell" sheetId="2" r:id="rId1"/>
+    <sheet name="Excel-Funktionen" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="x">Tabelle1!$B$2:$B$8</definedName>
-    <definedName name="xbar">Tabelle2!$B$11</definedName>
-    <definedName name="y">Tabelle1!$C$2:$C$8</definedName>
-    <definedName name="ybar">Tabelle2!$C$11</definedName>
+    <definedName name="x">'Excel-Funktionen'!$B$2:$B$8</definedName>
+    <definedName name="xbar">Manuell!$B$10</definedName>
+    <definedName name="y">'Excel-Funktionen'!$C$2:$C$8</definedName>
+    <definedName name="ybar">Manuell!$C$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>x</t>
   </si>
@@ -50,15 +49,6 @@
   </si>
   <si>
     <t>r</t>
-  </si>
-  <si>
-    <t>y_hat</t>
-  </si>
-  <si>
-    <t>y-y_hat</t>
-  </si>
-  <si>
-    <t>(y-y_hat)^2</t>
   </si>
   <si>
     <t>x-xbar</t>
@@ -88,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,15 +104,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -215,7 +215,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$B$8</c:f>
+              <c:f>'Excel-Funktionen'!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -242,7 +242,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$8</c:f>
+              <c:f>'Excel-Funktionen'!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -268,7 +268,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-316D-4A04-91F1-27BBDB48276F}"/>
             </c:ext>
@@ -282,11 +282,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2024156784"/>
-        <c:axId val="2024171248"/>
+        <c:axId val="520608440"/>
+        <c:axId val="520608832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2024156784"/>
+        <c:axId val="520608440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -343,12 +343,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2024171248"/>
+        <c:crossAx val="520608832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2024171248"/>
+        <c:axId val="520608832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +405,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2024156784"/>
+        <c:crossAx val="520608440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -419,14 +419,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1037,7 +1037,7 @@
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937B0CE6-1526-49C6-A816-0C8632631D94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{937B0CE6-1526-49C6-A816-0C8632631D94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,90 +1354,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF708A7C-A62A-4CC3-A3F4-F8D7894E4947}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D8" si="0">B3-xbar</f>
+        <v>-2.5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E8" si="1">C3-ybar</f>
+        <v>17.5</v>
+      </c>
+      <c r="F3">
+        <f>D3*E3</f>
+        <v>-43.75</v>
+      </c>
+      <c r="G3">
+        <f>D3^2</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F8" si="2">D4*E4</f>
+        <v>-11.25</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G8" si="3">D4^2</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>-6.25</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>-12.5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>-6.25</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>-7.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>-11.25</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>-17.5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>-43.75</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
+        <f>SUM(B3:B8)</f>
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
+        <f>SUM(C3:C8)</f>
+        <v>195</v>
+      </c>
+      <c r="F9" s="2">
+        <f>SUM(F3:F8)</f>
+        <v>-122.5</v>
+      </c>
+      <c r="G9" s="2">
+        <f>SUM(G3:G8)</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <f>AVERAGE(B3:B8)</f>
+        <v>3.5</v>
+      </c>
+      <c r="C10">
+        <f>AVERAGE(C3:C8)</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f>F9/G9</f>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <f>ybar-F12*xbar</f>
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C3:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="4.36328125" customWidth="1"/>
+    <col min="8" max="8" width="3.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>50</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D8" si="0">$I$5*B3+$I$7</f>
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <f>C3-D3</f>
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f>E3^2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>40</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E8" si="1">C4-D4</f>
-        <v>-3</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F8" si="2">E4^2</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>45</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>81</v>
       </c>
       <c r="H5" t="s">
         <v>3</v>
@@ -1447,44 +1637,20 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>-9</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>25</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>9</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -1494,45 +1660,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>15</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <f>AVERAGE(B3:B8)</f>
-        <v>3.5</v>
-      </c>
-      <c r="C9">
-        <f>AVERAGE(C3:C8)</f>
-        <v>32.5</v>
-      </c>
-      <c r="F9">
-        <f>SUM(F3:F8)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="F10">
-        <f>F9/3</f>
-        <v>60</v>
-      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="H10" t="s">
         <v>2</v>
       </c>
@@ -1541,13 +1677,7 @@
         <v>0.82650602409638541</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="F11">
-        <f>SQRT(F10)</f>
-        <v>7.745966692414834</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="H12" t="s">
         <v>5</v>
       </c>
@@ -1560,239 +1690,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EC5279-CF1E-4552-8BC9-D717522B7AA2}">
-  <dimension ref="B3:G16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>50</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D9" si="0">B4-xbar</f>
-        <v>-2.5</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E9" si="1">C4-ybar</f>
-        <v>17.5</v>
-      </c>
-      <c r="F4">
-        <f>D4*E4</f>
-        <v>-43.75</v>
-      </c>
-      <c r="G4">
-        <f>D4^2</f>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>-1.5</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F9" si="2">D5*E5</f>
-        <v>-11.25</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G9" si="3">D5^2</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>-6.25</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>-12.5</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>-6.25</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>-7.5</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>-11.25</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>-17.5</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>-43.75</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <f>SUM(B4:B9)</f>
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <f>SUM(C4:C9)</f>
-        <v>195</v>
-      </c>
-      <c r="F10">
-        <f>SUM(F4:F9)</f>
-        <v>-122.5</v>
-      </c>
-      <c r="G10">
-        <f>SUM(G4:G9)</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <f>AVERAGE(B4:B9)</f>
-        <v>3.5</v>
-      </c>
-      <c r="C11">
-        <f>AVERAGE(C4:C9)</f>
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13">
-        <f>F10/G10</f>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C15">
-        <f>7*F13+F16</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16">
-        <f>ybar-F13*xbar</f>
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>